--- a/Thiết kế/UseCases/3. Quản lí danh mục.xlsx
+++ b/Thiết kế/UseCases/3. Quản lí danh mục.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69735BA1-90AE-4498-8ED4-BFDAF0BEE650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E85519-1AB9-47E4-857E-FD5A94E4C522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
+    <workbookView xWindow="2250" yWindow="1350" windowWidth="25230" windowHeight="14250" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,6 +225,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -236,20 +250,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -278,23 +278,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457689</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>10380</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F578B81-F3E3-4F45-AB08-1B5548DCED18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD137F76-226B-4636-A46C-5E482442F8AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,8 +310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="0"/>
-          <a:ext cx="3505689" cy="6125430"/>
+          <a:off x="7905750" y="0"/>
+          <a:ext cx="4229100" cy="6638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,138 +623,138 @@
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="39.7109375" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="34.7109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="39.7109375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -763,139 +763,139 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -907,315 +907,310 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="11">
         <v>44159</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B20:C20"/>
@@ -1228,6 +1223,11 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thiết kế/UseCases/3. Quản lí danh mục.xlsx
+++ b/Thiết kế/UseCases/3. Quản lí danh mục.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Thiết kế\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E85519-1AB9-47E4-857E-FD5A94E4C522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B6A6B9-C472-44C9-929C-E6DE44514022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1350" windowWidth="25230" windowHeight="14250" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Use Case Number:</t>
   </si>
@@ -126,10 +126,7 @@
     <t>3. Actor chọn chức năng cần sử dụng (quản lí nhân viên, đơn đặt hàng, khách hàng, kho, hóa đơn, tài khoản )</t>
   </si>
   <si>
-    <t>4. Hệ thống hiển thị danh mục của chức năng đã chọn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Actor xem trang đã hiển thị, use case kết thúc tại đây. </t>
+    <t xml:space="preserve">4. Hệ thống hiển thị danh mục của chức năng đã chọn. use case kết thúc tại đây. </t>
   </si>
 </sst>
 </file>
@@ -278,23 +275,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>27745</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45168</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD137F76-226B-4636-A46C-5E482442F8AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2709663C-127B-42F4-9566-F6489ACB1BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,8 +307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905750" y="0"/>
-          <a:ext cx="4229100" cy="6638095"/>
+          <a:off x="8442960" y="213360"/>
+          <a:ext cx="4419048" cy="5380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,20 +617,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E5EAC9-BCA6-4B31-A937-E7944D29B1E5}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="39.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="34.6640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="39.6640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +654,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -681,7 +678,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +702,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +726,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,7 +750,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -779,7 +776,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
@@ -801,7 +798,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -823,7 +820,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -845,7 +842,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -867,362 +864,340 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="11" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B21" s="11">
         <v>44159</v>
       </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="4" t="s">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
